--- a/docs/2024-01-24/zamo/alignment/alignment.xlsx
+++ b/docs/2024-01-24/zamo/alignment/alignment.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuele/Desktop/ZAMO Ontology/docs/2024-01-24/zamo/alignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C579EB-5A38-5B45-90D8-2D60857B454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDB5D87-BA3C-1F44-B16D-62BC5FDE6414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{1A2BE461-13BF-7449-83BB-1D41C2DD75EE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{1A2BE461-13BF-7449-83BB-1D41C2DD75EE}"/>
   </bookViews>
   <sheets>
     <sheet name="AGENT" sheetId="1" r:id="rId1"/>
     <sheet name="EVENT" sheetId="3" r:id="rId2"/>
     <sheet name="SOURCE" sheetId="2" r:id="rId3"/>
+    <sheet name="Export" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="233">
   <si>
     <t>CLASSES</t>
   </si>
@@ -485,13 +486,269 @@
   </si>
   <si>
     <t>agents#EventEdition</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E39_Actor</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E21_Person</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E53_Place</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#Site</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#Organization</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#ChangeEvent</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#Role</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#Membership</t>
+  </si>
+  <si>
+    <t>http://purl.org/spar/fabio/SubjectDiscipline</t>
+  </si>
+  <si>
+    <t>http://www.loa-cnr.it/ontologies/DUL.owl#Collection</t>
+  </si>
+  <si>
+    <t>http://www.loa-cnr.it/ontologies/DUL.owl#Event</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E66_Formation</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#Organizational Unit</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E68_Dissolution</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#resultingOrganization</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#originalOrganization</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P95_has_formed</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#subOrganizationOf</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#role</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P89_falls_within</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#siteAddress</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#hasUnit</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#hasSite</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/org#hasMember</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P99_dissolved</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E10_Transfer_of_Custody</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E10_Transfer_of_Custody
+http://www.cidoc-crm.org/cidoc-crm/E8_Acquisition</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E96_Purchase</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E13_Attribute_Assignment</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E5_Event</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E3_Condition_State</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E55_Type</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E97_Monetary_Amount</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E98_Currency</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E89_Propositional_Object</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P24_transferred_title_of</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P30_transferred_custody_of</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P180_has_currency</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P140_assigned_attribute_to</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P141_assigned</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P35_has_identified</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P40_observed_dimension</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P46i_forms_part_of</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P15_was_influenced_by</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P20_had_specific_purpose</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P14_carried_out_by</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P23_transferred_title_from
+http://www.cidoc-crm.org/cidoc-crm/P28_custody_surrendered_by</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P22_transferred_title_to
+http://www.cidoc-crm.org/cidoc-crm/P29_custody_received_by</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P7_took_place_at</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P11_had_participant</t>
+  </si>
+  <si>
+    <t>http://www.loa-cnr.it/ontologies/DUL.owl#hasPart</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P11i_participated_in</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P179_had_sales_price</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P177_assigned_property_of_type</t>
+  </si>
+  <si>
+    <t>http://purl.org/spar/cito/cites</t>
+  </si>
+  <si>
+    <t>http://purl.org/spar/cito/disputes</t>
+  </si>
+  <si>
+    <t>http://purl.org/spar/cito/isSupportedBy</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E18_Physical_Thing</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E22_Human-Made_Object</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E78_Curated_Holding</t>
+  </si>
+  <si>
+    <t>http://purl.org/spar/cito/isDocumentedBy</t>
+  </si>
+  <si>
+    <t>https://w3id.org/arco/ontology/archive/ArchivalCollection</t>
+  </si>
+  <si>
+    <t>https://w3id.org/arco/ontology/archive/ArchivalResource</t>
+  </si>
+  <si>
+    <t>http://purl.org/spar/fabio/Letter</t>
+  </si>
+  <si>
+    <t>http://www.essepuntato.it/2014/03/fentry/Photograph</t>
+  </si>
+  <si>
+    <t>http://purl.org/spar/fabio/ArtisticWork</t>
+  </si>
+  <si>
+    <t>https://w3id.org/zeri/ontology/zamo/sources#hasExtent</t>
+  </si>
+  <si>
+    <t>https://w3id.org/arco/ontology/archive/extent</t>
+  </si>
+  <si>
+    <t>OBJECT &amp; DATA PROPERTIES</t>
+  </si>
+  <si>
+    <t>http://purl.org/spar/fabio/Catalog</t>
+  </si>
+  <si>
+    <t>https://w3id.org/arco/ontology/context-description/PhotographicFonds</t>
+  </si>
+  <si>
+    <t>http://purl.org/spar/fabio/Item</t>
+  </si>
+  <si>
+    <t>https://w3id.org/arco/ontology/context-description/Interpretation</t>
+  </si>
+  <si>
+    <t>http://purl.org/emmedi/hico/InterpretationAct
+https://w3id.org/arco/ontology/context-description/Interpretation</t>
+  </si>
+  <si>
+    <t>https://w3id.org/arco/ontology/context-description/hasInterpretationSubject</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P52_has_current_owner</t>
+  </si>
+  <si>
+    <t>IN ARCO SOLO ARCHIVAL PERO'</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P23_transferred_title_from</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P28_custody_surrendered_by</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P29_custody_received_by</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/P22_transferred_title_to</t>
+  </si>
+  <si>
+    <t>http://www.cidoc-crm.org/cidoc-crm/E8_Acquisition</t>
+  </si>
+  <si>
+    <t>http://purl.org/emmedi/hico/InterpretationAct</t>
+  </si>
+  <si>
+    <t>uri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -534,8 +791,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +829,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,18 +977,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,20 +1013,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,10 +1033,67 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1093,15 +1431,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420D7FD5-EEA6-4345-B1EF-047E5395E7D4}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="C1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
     <col min="4" max="4" width="62.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="50.1640625" customWidth="1"/>
     <col min="7" max="7" width="29.83203125" customWidth="1"/>
     <col min="8" max="8" width="25.1640625" customWidth="1"/>
   </cols>
@@ -1119,44 +1459,44 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="14"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1164,17 +1504,19 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="12" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1182,17 +1524,18 @@
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1200,17 +1543,19 @@
       <c r="A7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="12" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1218,17 +1563,18 @@
       <c r="A8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="39" t="s">
+        <v>153</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="12" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1236,17 +1582,17 @@
       <c r="A9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="30" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="15" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1254,35 +1600,38 @@
       <c r="A10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="15" t="s">
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="37" t="s">
+        <v>155</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="15" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="12" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1290,17 +1639,19 @@
       <c r="A12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="39" t="s">
+        <v>156</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="12" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1308,17 +1659,18 @@
       <c r="A13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="12" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1326,17 +1678,19 @@
       <c r="A14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="15" t="s">
+      <c r="F14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1344,17 +1698,18 @@
       <c r="A15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="C15" s="39" t="s">
+        <v>158</v>
+      </c>
       <c r="D15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="15" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1362,17 +1717,19 @@
       <c r="A16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1380,17 +1737,17 @@
       <c r="A17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="15" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1398,17 +1755,18 @@
       <c r="A18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="12" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1416,17 +1774,18 @@
       <c r="A19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="D19" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="15" t="s">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1434,17 +1793,19 @@
       <c r="A20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="15" t="s">
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1452,17 +1813,17 @@
       <c r="A21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="15" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="12" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1470,17 +1831,18 @@
       <c r="A22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="15" t="s">
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="12" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1488,17 +1850,19 @@
       <c r="A23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="D23" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1506,17 +1870,17 @@
       <c r="A24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="15" t="s">
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1524,17 +1888,18 @@
       <c r="A25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="D25" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="15" t="s">
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="12" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1542,97 +1907,93 @@
       <c r="A26" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="15" t="s">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="15" t="s">
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="15" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="15" t="s">
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="15" t="s">
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="7" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="17" t="s">
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="14" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1653,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F84DB0-86E9-7C42-8490-2C89D29F1397}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1662,45 +2023,44 @@
     <col min="1" max="1" width="57.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="56.6640625" customWidth="1"/>
-    <col min="4" max="4" width="67.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="67.33203125" style="56" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="60.6640625" customWidth="1"/>
     <col min="7" max="7" width="45.33203125" customWidth="1"/>
     <col min="8" max="8" width="59.1640625" customWidth="1"/>
     <col min="14" max="14" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="9"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1710,37 +2070,41 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>48</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="12" t="s">
         <v>50</v>
       </c>
       <c r="N5" s="1"/>
@@ -1750,17 +2114,18 @@
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="51" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="1"/>
@@ -1770,17 +2135,19 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="12" t="s">
         <v>52</v>
       </c>
       <c r="N7" s="1"/>
@@ -1790,17 +2157,18 @@
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N8" s="1"/>
@@ -1810,77 +2178,83 @@
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="12" t="s">
         <v>47</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="12" t="s">
         <v>57</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N12" s="1"/>
@@ -1890,37 +2264,41 @@
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N14" s="1"/>
@@ -1930,17 +2308,19 @@
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="12" t="s">
         <v>46</v>
       </c>
       <c r="N15" s="1"/>
@@ -1950,37 +2330,38 @@
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="15" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="12" t="s">
         <v>56</v>
       </c>
       <c r="N17" s="1"/>
@@ -1990,17 +2371,18 @@
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="12" t="s">
         <v>46</v>
       </c>
       <c r="N18" s="1"/>
@@ -2010,37 +2392,39 @@
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="12" t="s">
         <v>52</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="15" t="s">
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N20" s="1"/>
@@ -2050,17 +2434,18 @@
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="15" t="s">
+      <c r="E21" s="57"/>
+      <c r="F21" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="12" t="s">
         <v>63</v>
       </c>
       <c r="N21" s="1"/>
@@ -2068,17 +2453,17 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="12" t="s">
         <v>50</v>
       </c>
       <c r="N22" s="1"/>
@@ -2086,17 +2471,17 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="15" t="s">
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="12" t="s">
         <v>53</v>
       </c>
       <c r="N23" s="1"/>
@@ -2104,17 +2489,17 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="15" t="s">
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="12" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="1"/>
@@ -2122,17 +2507,17 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="15" t="s">
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="12" t="s">
         <v>59</v>
       </c>
       <c r="N25" s="1"/>
@@ -2140,17 +2525,17 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="15" t="s">
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="12" t="s">
         <v>54</v>
       </c>
       <c r="N26" s="1"/>
@@ -2158,35 +2543,35 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="15" t="s">
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="12" t="s">
         <v>58</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="17" t="s">
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="14" t="s">
         <v>56</v>
       </c>
       <c r="N28" s="1"/>
@@ -2206,90 +2591,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E18756-FEA3-5A44-A6EC-B646608E97DC}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="63.1640625" customWidth="1"/>
     <col min="4" max="4" width="57.83203125" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="65.6640625" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="37" t="s">
+        <v>222</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="12" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2297,17 +2681,18 @@
       <c r="A6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="12" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2315,17 +2700,19 @@
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="12" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2333,17 +2720,19 @@
       <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2351,17 +2740,19 @@
       <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2369,155 +2760,136 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="C11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="C19" t="s">
+        <v>219</v>
+      </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2526,5 +2898,783 @@
     <mergeCell ref="D2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F7A448-2D2B-7147-B17C-5E3B99608E24}">
+  <dimension ref="A1:B151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="67.6640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="58" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="64"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="58" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="63" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="61" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="58" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="59" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="59" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="61" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="58" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="58" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="58" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>